--- a/conformer_test/charge_models_no_rin.xlsx
+++ b/conformer_test/charge_models_no_rin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][C:5]([C@@:6]1([H:32])[C@:7]([O:23][C:24](=[O:25])[C:26]([H:41])([H:42])[H:43])([H:33])[C@@:8]([O:19][C:20](=[O:21])[C:22]([H:38])([H:39])[H:40])([H:34])[C@:9]([N:11]2[C:12](=[O:13])[N:14]([H:36])[C:15](=[O:16])[C:17]([H:37])=[N:18]2)([H:35])[O:10]1)([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2](=[O:3])[O:4][c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([C:11]([c:12]2[c:13]([H:36])[c:14]([H:37])[c:15]([O:18][C:19](=[O:20])[C:21]([H:40])([H:41])[H:42])[c:16]([H:38])[c:17]2[H:39])([c:22]2[c:23]([H:43])[c:24]([H:44])[c:25]([H:45])[c:26]([H:46])[n:27]2)[H:35])[c:9]([H:33])[c:10]1[H:34])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([C:3](=[O:4])[N:5]([C@@:6]([C:7]([S:8][H:29])([H:27])[H:28])([C:9](=[O:10])[N:11]([C:12]([C:13](=[O:14])[O-:15])([H:31])[H:32])[H:30])[H:26])[H:25])([H:23])[H:24])([C@@:16]([C:17](=[O:18])[O-:19])([N+:20]([H:34])([H:35])[H:36])[H:33])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -867,7 +867,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C:6]([C:7](=[O:8])[O:9][C@:10]1([H:42])[C:11]([H:43])([H:44])[C:12]([H:45])([H:46])[C@:13]2([H:47])[C@:14]1([C:28]([H:62])([H:63])[H:64])[C:15]([H:48])([H:49])[C:16]([H:50])([H:51])[C@:17]1([H:52])[C@:18]2([H:53])[C:19]([H:54])([H:55])[C:20]([H:56])([H:57])[c:21]2[c:22]1[c:23]([H:58])[c:24]([H:59])[c:25]([O:27][H:61])[c:26]2[H:60])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([C:5]([C@@:6]([C:7]([H:38])([H:39])[H:40])(/[C:8](=[C:9](/[C@:10]1([H:43])[C@@:11]([O:25][H:60])([H:44])[C:12]([H:45])([H:46])[C@@:13]([O:24][H:59])([H:47])[C@@:14]1([C:15]([C:16](=[C:17]([C:18]([C:19]([C:20]([C:21](=[O:22])[O-:23])([H:57])[H:58])([H:55])[H:56])([H:53])[H:54])[H:52])[H:51])([H:49])[H:50])[H:48])[H:42])[H:41])[O:26][H:61])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]([C:6]([C:7]([C:8]([C:9]([H:40])([H:41])[H:42])([H:38])[H:39])([H:36])[H:37])([H:34])[H:35])([C:10]([C:11]([N:12]([C:13]1=[N:14][C:15]([c:18]2[c:19]([H:48])[c:20]([H:49])[c:21]([H:50])[c:22]([H:51])[c:23]2[H:52])=[N:16][O:17]1)[H:47])([H:45])[H:46])([H:43])[H:44])[H:33])([H:31])[H:32])([H:29])[H:30])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C:2]([C:3]([C:4]([N+:5]1([C:26]([H:54])([H:55])[H:56])[C@@:6]2([H:36])[C:7]([H:37])([H:38])[C:8]([O:14][C:15](=[O:16])[C@@:17]([C:18]([O:19][H:48])([H:46])[H:47])([c:20]3[c:21]([H:49])[c:22]([H:50])[c:23]([H:51])[c:24]([H:52])[c:25]3[H:53])[H:45])([H:39])[C:9]([H:40])([H:41])[C@:10]1([H:42])[C@@:11]1([H:43])[C@:12]2([H:44])[O:13]1)([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:25])([H:26])[H:27])([C:4]([H:28])([H:29])[H:30])[N+:5]([C:6]([C@@:7]([C:8]([O:9][C:10]1=[N:14][S:13][N:12]=[C:11]1[N:15]1[C:16]([H:38])([H:39])[C:17]([H:40])([H:41])[O:18][C:19]([H:42])([H:43])[C:20]1([H:44])[H:45])([H:36])[H:37])([O:21][H:46])[H:35])([H:33])[H:34])([H:31])[H:32])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:26])([H:27])[H:28])([C:4](=[O:5])[O:6][C:7]([C:8]([C:9]([C:10](=[O:11])[N:12]([C:13]([H:35])([H:36])[H:37])[C:14]([H:38])([H:39])[H:40])([H:33])[H:34])([H:31])[H:32])([H:29])[H:30])[O:15][c:16]1[c:17]([H:41])[c:18]([H:42])[c:19]([Cl:22])[c:20]([H:43])[c:21]1[H:44])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([C@@:4]([C:5](=[O:6])[O:7][C:8]([C:9]([O:10][C:11]([N:12]1[C:13]([H:38])=[N:14][C:15]2=[C:16]1[N:17]=[C:18]([N:22]([H:40])[H:41])[N:19]([H:39])[C:20]2=[O:21])([H:36])[H:37])([H:34])[H:35])([H:32])[H:33])([N+:23]([H:42])([H:43])[H:44])[H:31])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
+          <t>[C:1]([C:2]([C:3]([H:28])([H:29])[H:30])([N+:4]([C:5]([C@@:6]([C:7]([O:8][c:9]1[c:10]([H:38])[c:11]([H:39])[c:12]([C:15]([O:16][C:17]([C:18]([O:19][C:20]([C:21]([H:49])([H:50])[H:51])([C:22]([H:52])([H:53])[H:54])[H:48])([H:46])[H:47])([H:44])[H:45])([H:42])[H:43])[c:13]([H:40])[c:14]1[H:41])([H:36])[H:37])([O:23][H:55])[H:35])([H:33])[H:34])([H:31])[H:32])[H:27])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([C:2]([C:3]([H:32])([H:33])[H:34])([C:4]([O:5][C:6]([C@@:7]([C:8]([N:9]([C:10]([c:11]1[c:12]([H:44])[c:13]([H:45])[c:14]([H:46])[c:15]([H:47])[c:16]1[H:48])([H:42])[H:43])[c:17]1[c:18]([H:49])[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]1[H:53])([H:40])[H:41])([N+:23]1([H:54])[C:24]([H:55])([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]1([H:61])[H:62])[H:39])([H:37])[H:38])([H:35])[H:36])[H:31])([H:28])([H:29])[H:30]</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
+          <t>[C:1]([C:2]([C:3]([N+:4]([C:5]([C:6]([H:31])([H:32])[H:33])([H:29])[H:30])([C@@:7]([C:8]([C:9]([H:37])([H:38])[H:39])([H:35])[H:36])([C:10](=[O:11])[N:12]([c:13]1[c:14]([C:20]([H:47])([H:48])[H:49])[c:15]([H:41])[c:16]([H:42])[c:17]([H:43])[c:18]1[C:19]([H:44])([H:45])[H:46])[H:40])[H:34])[H:28])([H:26])[H:27])([H:24])[H:25])([H:21])([H:22])[H:23]</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([C:3]([N:4]([C:5]([C:6]([C:7]([H:31])([H:32])[H:33])([H:29])[H:30])([H:27])[H:28])[S:8](=[O:9])(=[O:10])[c:11]1[c:12]([H:34])[c:13]([H:35])[c:14]([C:17](=[O:18])[O-:19])[c:15]([H:36])[c:16]1[H:37])([H:25])[H:26])([H:23])[H:24])([H:20])([H:21])[H:22]</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([C:3]1=[N:4][N:5]([C:11]([C:12]([C:13]([N+:14]2([H:43])[C:15]([H:44])([H:45])[C:16]([H:46])([H:47])[N:17]([c:20]3[c:21]([H:52])[c:22]([H:53])[c:23]([H:54])[c:24]([Cl:26])[c:25]3[H:55])[C:18]([H:48])([H:49])[C:19]2([H:50])[H:51])([H:41])[H:42])([H:39])[H:40])([H:37])[H:38])[C:6](=[O:7])[N:8]1[C:9]([C:10]([H:34])([H:35])[H:36])([H:32])[H:33])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([H:23])([H:24])[H:25])([C:5]([C:6]([H:26])([H:27])[H:28])([C:7]([O:8][C:9](=[O:10])[N:11]([H:31])[H:32])([H:29])[H:30])[C:12]([O:13][C:14](=[O:15])[N:16]([H:35])[H:36])([H:33])[H:34])[H:22])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([C@@:3]([C:4]([O:5][H:23])([H:21])[H:22])([N+:6]([C:7]([C:8]([N+:9]([C@@:10]([C:11]([C:12]([H:35])([H:36])[H:37])([H:33])[H:34])([C:13]([O:14][H:40])([H:38])[H:39])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:24])[H:25])[H:20])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([Cl:3])([H:21])[H:22])([N+:4]([C:5]([C@:6]([C@:7]([C@@:8]([C@@:9]([C:10]([N+:11]([C:12]([C:13]([Cl:14])([H:37])[H:38])([H:35])[H:36])([H:33])[H:34])([H:31])[H:32])([O:15][H:39])[H:30])([O:16][H:40])[H:29])([O:17][H:41])[H:28])([O:18][H:42])[H:27])([H:25])[H:26])([H:23])[H:24])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5](=[O:6])[O-:7])([H:33])[H:34])([C:8]([C:9](=[O:10])[O-:11])([H:35])[H:36])[H:32])([H:30])[H:31])([N+:12]([C:13]([C:14]([N+:15]([C:16]([C:17](=[O:18])[O-:19])([H:43])[H:44])([C:20]([C:21](=[O:22])[O-:23])([H:45])[H:46])[H:42])([H:40])[H:41])([H:38])[H:39])([C:24]([C:25](=[O:26])[O-:27])([H:47])[H:48])[H:37])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([C:6]([C@@:7]([C:8]([H:37])([H:38])[H:39])([N:9]([c:10]1[c:11]([H:41])[c:12]([H:42])[n+:13]([H:43])[c:14]2[c:15]1[c:16]([H:44])[c:17]([H:45])[c:18]([Cl:20])[c:19]2[H:46])[H:40])[H:36])([H:34])[H:35])([H:32])[H:33])([H:30])[H:31])([C:21]([C:22]([O:23][H:51])([H:49])[H:50])([H:47])[H:48])[H:29])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:31])([H:32])[H:33])([H:29])[H:30])([C:6]([C:7]([H:36])([H:37])[H:38])([H:34])[H:35])[C:8]([C:9]([C@@:10]([c:11]1[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]([H:46])[c:16]1[H:47])([C:17]1([H:48])[C:18]([H:49])([H:50])[C:19]([H:51])([H:52])[C:20]([H:53])([H:54])[C:21]([H:55])([H:56])[C:22]1([H:57])[H:58])[O:23][H:59])([H:41])[H:42])([H:39])[H:40])([H:27])[H:28])([H:24])([H:25])[H:26]</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:33])([H:34])[H:35])([H:31])[H:32])([C:6]([C:7]([C:8]([N:9]([c:10]1[c:11]([H:42])[c:12]([H:43])[c:13]([H:44])[c:14]([H:45])[c:15]1[H:46])[C:16]1([H:47])[C:17]([H:48])([H:49])[c:18]2[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]([H:53])[c:23]2[C:24]1([H:54])[H:55])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:30])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([H:37])([H:38])[H:39])([H:35])[H:36])([C:6]([C:7]([O:8][C:9](=[O:10])[C@@:11]([C:12]([c:13]1[c:14]([H:47])[c:15]([H:48])[c:16]([H:49])[c:17]2[c:18]1[c:19]([H:50])[c:20]([H:51])[c:21]([H:52])[c:22]2[H:53])([H:45])[H:46])([C:23]([C@:24]1([H:56])[C:25]([H:57])([H:58])[C:26]([H:59])([H:60])[C:27]([H:61])([H:62])[O:28]1)([H:54])[H:55])[H:44])([H:42])[H:43])([H:40])[H:41])[H:34])([H:32])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]([C:4]([C:5]([N+:6]([C:7]([C:8]([N+:9]([H:27])([H:28])[H:29])([H:25])[H:26])([H:23])[H:24])([H:21])[H:22])([H:19])[H:20])([H:17])[H:18])([H:15])[H:16])([H:13])[H:14])([N+:10]([H:30])([H:31])[H:32])([H:11])[H:12]</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N+:3]1([H:30])[C:4]([H:31])([H:32])[C:5]([H:33])([H:34])[C:6]([H:35])([H:36])[C@@:7]1([C:8]([N:9]([C:10](=[O:11])[c:12]1[c:13]([H:41])[c:14]([S:20](=[O:21])(=[O:22])[C:23]([C:24]([H:49])([H:50])[H:51])([H:47])[H:48])[c:15]([H:42])[c:16]([H:43])[c:17]1[O:18][C:19]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])[H:37])([H:28])[H:29])([H:25])([H:26])[H:27]</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
+          <t>[C:1]([C:2]([N:3]([C:4]([C:5]([H:24])([H:25])[H:26])([H:22])[H:23])[C:6](=[S:7])[S:8][S:9][C:10](=[S:11])[N:12]([C:13]([C:14]([H:29])([H:30])[H:31])([H:27])[H:28])[C:15]([C:16]([H:34])([H:35])[H:36])([H:32])[H:33])([H:20])[H:21])([H:17])([H:18])[H:19]</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
+          <t>[C:1]([C:2]([O:3][C:4](=[O:5])/[C:6](=[C:7]([C:8]([H:33])([H:34])[H:35])/[C:9](=[C:10]([C:11](=[C:12]([C:13]([H:39])([H:40])[H:41])/[C:14](=[C:15](/[c:16]1[c:17]([C:26]([H:54])([H:55])[H:56])[c:18]([H:44])[c:19]([O:24][C:25]([H:51])([H:52])[H:53])[c:20]([C:23]([H:48])([H:49])[H:50])[c:21]1[C:22]([H:45])([H:46])[H:47])[H:43])[H:42])/[H:38])\[H:37])[H:36])[H:32])([H:30])[H:31])([H:27])([H:28])[H:29]</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
+          <t>[C:1]([C:2]([O:3][N+:4](=[O:5])[O-:6])([H:22])[H:23])([N+:7]([C:8]([C:9]([O:10][N+:11](=[O:12])[O-:13])([H:27])[H:28])([H:25])[H:26])([C:14]([C:15]([O:16][N+:17](=[O:18])[O-:19])([H:31])[H:32])([H:29])[H:30])[H:24])([H:20])[H:21]</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]([O:3][c:4]1[c:5]([H:35])[c:6]([H:36])[c:7]([C:13]([c:14]2[c:15]3[c:16]([H:45])[c:17]([O:27][C:28]([C:29]([H:56])([H:57])[H:58])([H:54])[H:55])[c:18]([O:24][C:25]([C:26]([H:51])([H:52])[H:53])([H:49])[H:50])[c:19]([H:46])[c:20]3[c:21]([H:47])[c:22]([H:48])[n:23]2)([H:43])[H:44])[c:8]([H:37])[c:9]1[O:10][C:11]([C:12]([H:40])([H:41])[H:42])([H:38])[H:39])([H:33])[H:34])([H:30])([H:31])[H:32]</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
@@ -4195,11 +4195,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([C:7]([S:8][C:9]([C:10]([N:11](/[C:12](=[N:13]/[C:14]#[N:15])[N:16]([C:17]([H:31])([H:32])[H:33])[H:30])[H:29])([H:27])[H:28])([H:25])[H:26])([H:23])[H:24])[N:4]=[C:5]([H:21])[N:6]1[H:22])([H:18])([H:19])[H:20]</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
+          <t>[C:1]([C:2]1=[C:3]([H:32])[c:4]2[c:5]([c:7]([H:34])[c:8]([H:35])[c:9]([H:36])[c:10]2[O:11][C:12]([C@:13]([C:14]([N+:15]([C:16]([C:17]([H:44])([H:45])[H:46])([C:18]([H:47])([H:48])[H:49])[C:19]([H:50])([H:51])[H:52])([H:42])[H:43])([H:40])[H:41])([O:20][C:21](=[O:22])[c:23]2[c:24]([H:53])[c:25]([H:54])[c:26]([H:55])[c:27]([H:56])[c:28]2[H:57])[H:39])([H:37])[H:38])[N:6]1[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
+          <t>[C:1]([C:2]1=[N:3][C:4]([C:28]([H:50])([H:51])[H:52])=[C:5]([C:21](=[O:22])[O:23][C:24]([C:25]([C:26]([H:44])([H:45])[H:46])([C:27]([H:47])([H:48])[H:49])[H:43])([H:41])[H:42])[C@@:6]([c:12]2[c:13]([H:37])[c:14]([H:38])[c:15]([H:39])[c:16]([H:40])[c:17]2[N+:18](=[O:19])[O-:20])([H:32])[C:7]1([C:8](=[O:9])[O:10][C:11]([H:34])([H:35])[H:36])[H:33])([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([C@:2]([C:3]([C:4]([c:5]1[c:6]([H:31])[c:7]([H:32])[c:8]([O:11][H:35])[c:9]([H:33])[c:10]1[H:34])([H:29])[H:30])([H:27])[H:28])([N+:12]([C:13]([C:14]([c:15]1[c:16]([H:42])[c:17]([H:43])[c:18]([O:22][H:46])[c:19]([O:21][H:45])[c:20]1[H:44])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[H:26])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N+:2]([C:3]([C:4]([C@@:5]([c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([H:35])[c:10]([H:36])[c:11]1[H:37])([O:12][c:13]1[c:14]([H:38])[c:15]([H:39])[c:16]([C:19]([F:20])([F:21])[F:22])[c:17]([H:40])[c:18]1[H:41])[H:32])([H:30])[H:31])([H:28])[H:29])([H:26])[H:27])([H:23])([H:24])[H:25]</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]([C:3]([C:4]([O:5][c:6]1[c:7]([H:33])[c:8]([H:34])[c:9]([C:12]([C@@:13]2([H:39])[C:14](=[O:15])[N:16]([H:40])[C:17](=[O:18])[S:19]2)([H:37])[H:38])[c:10]([H:35])[c:11]1[H:36])([H:31])[H:32])([H:29])[H:30])[c:20]1[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]([H:44])[n+:25]1[H:45])([H:26])([H:27])[H:28]</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([N:2]1[C:3]2=[C:4]([C:5](=[O:6])[N:7]([C:10]([H:32])([H:33])[H:34])[C:8]1=[O:9])[N:11]([C:14]([C:15]([C:16]([N+:17]([C:18]([C@@:19]([c:20]1[c:21]([H:47])[c:22]([O:27][H:51])[c:23]([H:48])[c:24]([O:26][H:50])[c:25]1[H:49])([O:28][H:52])[H:46])([H:44])[H:45])([H:42])[H:43])([H:40])[H:41])([H:38])[H:39])([H:36])[H:37])[C:12]([H:35])=[N:13]2)([H:29])([H:30])[H:31]</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+          <t>[C:1]([O:2][C:3]([C:4]([O:5][c:6]1[c:7]([H:29])[n:8][c:9]([N:12]([S:13](=[O:14])(=[O:15])[c:16]2[c:17]([H:32])[c:18]([H:33])[c:19]([H:34])[c:20]([H:35])[c:21]2[H:36])[H:31])[n:10][c:11]1[H:30])([H:27])[H:28])([H:25])[H:26])([H:22])([H:23])[H:24]</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356">
@@ -5053,10 +5053,634 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[C:1]([O:2][c:3]1[c:4]([H:30])[c:5]([H:31])[n:6][c:7]([C:11]([S@@:12](=[O:13])[C:14]2=[N:22][c:21]3[c:16]([c:17]([H:38])[c:18]([H:39])[c:19]([O:23][C:24]([F:25])([F:26])[H:41])[c:20]3[H:40])[N:15]2[H:37])([H:35])[H:36])[c:8]1[O:9][C:10]([H:32])([H:33])[H:34])([H:27])([H:28])[H:29]</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[C:1]([S:2](=[O:3])(=[O:4])[O:5][C:6]([C:7]([C:8]([C:9]([O:10][S:11](=[O:12])(=[O:13])[C:14]([H:26])([H:27])[H:28])([H:24])[H:25])([H:22])[H:23])([H:20])[H:21])([H:18])[H:19])([H:15])([H:16])[H:17]</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>[C:1]([c:2]1[c:3]([H:24])[c:4]([O:15][C:16]([C:17]([N+:18]([C:19]([H:41])([H:42])[H:43])([C:20]([H:44])([H:45])[H:46])[H:40])([H:38])[H:39])([H:36])[H:37])[c:5]([C:12]([C:13]([H:30])([H:31])[H:32])([C:14]([H:33])([H:34])[H:35])[H:29])[c:6]([H:25])[c:7]1[O:8][C:9](=[O:10])[C:11]([H:26])([H:27])[H:28])([H:21])([H:22])[H:23]</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
           <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
         </is>
       </c>
-      <c r="C356" t="n">
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:23])[c:2]([H:24])[c:3]([H:25])[c:4]([C:7]([N:8]([C:9](=[O:10])[C:11]([C:12]([N:13]([N:14]([C:15](=[O:16])[c:17]2[c:18]([H:37])[c:19]([H:38])[n:20][c:21]([H:39])[c:22]2[H:40])[H:36])[H:35])([H:33])[H:34])([H:31])[H:32])[H:30])([H:28])[H:29])[c:5]([H:26])[c:6]1[H:27]</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>[c:1]1([H:25])[c:2]([H:26])[c:3]([H:27])[c:4]([C:7]2=[C:8]([c:19]3[c:20]([H:40])[c:21]([H:41])[c:22]([H:42])[c:23]([H:43])[c:24]3[H:44])[O:9][C:10]([N:12]([C:13]([C:14]([O:15][H:34])([H:32])[H:33])([H:30])[H:31])[C:16]([C:17]([O:18][H:39])([H:37])[H:38])([H:35])[H:36])=[N:11]2)[c:5]([H:28])[c:6]1[H:29]</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
         <v>9</v>
       </c>
     </row>
